--- a/WebBasedEvaluations/Old Program documents/old docs/Review_Data_Upload_Groups_company2.xlsx
+++ b/WebBasedEvaluations/Old Program documents/old docs/Review_Data_Upload_Groups_company2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\git\Fall-2022-Group-3-Web-Evaluation\WebBasedEvaluations\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack\cpsc488\Spring-2024-Evaluation-System-\WebBasedEvaluations\Old Program documents\old docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01DE4A5-42AE-4F5C-8D06-9802F0F95A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728BC6E5-B06D-4A35-993C-52748A3103B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{079B294C-15ED-4C5F-AB5B-888FCCC0F075}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{079B294C-15ED-4C5F-AB5B-888FCCC0F075}"/>
   </bookViews>
   <sheets>
     <sheet name="Group Reviewees" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="122">
   <si>
     <t>Level 1, Face to Face</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>Level 1</t>
-  </si>
-  <si>
-    <t>EVAL-001</t>
   </si>
   <si>
     <t>EVAL-003</t>
@@ -798,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0720E2F-7021-4A92-8E8F-A1962F893CAF}">
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,7 +898,7 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -925,7 +922,7 @@
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
         <v>31</v>
@@ -966,791 +963,791 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" t="s">
         <v>77</v>
       </c>
-      <c r="I11" t="s">
-        <v>78</v>
-      </c>
       <c r="J11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" t="s">
         <v>86</v>
       </c>
-      <c r="K11" t="s">
-        <v>87</v>
-      </c>
       <c r="L11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q11" t="s">
+        <v>98</v>
+      </c>
+      <c r="R11" t="s">
         <v>99</v>
       </c>
-      <c r="R11" t="s">
-        <v>100</v>
-      </c>
       <c r="S11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T11" t="s">
+        <v>103</v>
+      </c>
+      <c r="U11" t="s">
         <v>104</v>
       </c>
-      <c r="U11" t="s">
-        <v>105</v>
-      </c>
       <c r="V11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -1765,7 +1762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB5709D-CDAD-4FA8-9932-B6C00FC99588}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
@@ -1780,7 +1777,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>6</v>
@@ -1793,7 +1790,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -1806,10 +1803,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1819,7 +1816,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
@@ -1839,7 +1836,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" s="2">
         <v>4</v>
@@ -1852,7 +1849,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="2">
         <v>5</v>
@@ -1865,7 +1862,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="2">
         <v>6</v>
@@ -1878,7 +1875,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="2">
         <v>6</v>
@@ -1897,7 +1894,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" s="2">
         <v>8</v>
@@ -1910,7 +1907,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" s="2">
         <v>9</v>
@@ -1929,7 +1926,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" s="2">
         <v>10</v>
@@ -1942,7 +1939,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" s="2">
         <v>11</v>
@@ -1955,7 +1952,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B25" s="2">
         <v>12</v>
@@ -1974,7 +1971,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B27" s="2">
         <v>13</v>
@@ -1987,7 +1984,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="2">
         <v>14</v>
@@ -2000,7 +1997,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B31" s="2">
         <v>15</v>
@@ -2013,7 +2010,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" s="2">
         <v>16</v>
@@ -2026,7 +2023,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2">
         <v>16</v>
@@ -2045,7 +2042,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37" s="2">
         <v>18</v>
@@ -2058,7 +2055,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>3</v>
@@ -2077,7 +2074,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B41" s="2">
         <v>19</v>
@@ -2090,7 +2087,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B43" s="2">
         <v>20</v>
@@ -2103,7 +2100,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B45" s="2">
         <v>22</v>
@@ -2127,7 +2124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1863F47-BB31-4312-9EDE-2DD54DBBC63C}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -2138,13 +2135,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2155,7 +2152,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2166,7 +2163,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2177,7 +2174,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2188,7 +2185,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
